--- a/niveles_cramer/Estructura 2025_ Cramer.xlsx
+++ b/niveles_cramer/Estructura 2025_ Cramer.xlsx
@@ -5,14 +5,14 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://carloscramerproductos-my.sharepoint.com/personal/cmedina_cramer_cl/Documents/Documentos/Estructura/Entregas Compensaciones/Nueva carpeta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpavez\Desktop\Compensaciones\git\compensaciones\niveles_cramer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6660"/>
   </bookViews>
   <sheets>
-    <sheet name="Reporte de Estructura - Dotació" sheetId="1" r:id="rId1"/>
+    <sheet name="Reporte de Estructura" sheetId="1" r:id="rId1"/>
     <sheet name="Bandas 2025" sheetId="11" r:id="rId2"/>
     <sheet name="CeCos" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja2" sheetId="6" state="hidden" r:id="rId4"/>
@@ -22,12 +22,12 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Bandas 2025'!$K$4:$P$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte de Estructura - Dotació'!$A$1:$Y$535</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte de Estructura'!$C$1:$X$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
-    <pivotCache cacheId="12" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -4569,9 +4569,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4595,6 +4592,9 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4605,1009 +4605,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="446">
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
+  <dxfs count="98">
     <dxf>
       <font>
         <sz val="12"/>
@@ -5666,585 +4664,6 @@
     <dxf>
       <font>
         <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
       </font>
     </dxf>
     <dxf>
@@ -6368,7 +4787,127 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -6402,65 +4941,32 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="9"/>
+        <sz val="8"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="9"/>
+        <sz val="8"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="9"/>
+        <sz val="8"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="9"/>
+        <sz val="8"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="9"/>
+        <sz val="8"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
+        <sz val="8"/>
       </font>
     </dxf>
     <dxf>
@@ -6494,255 +5000,33 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <font>
-        <sz val="10"/>
+        <sz val="8"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="10"/>
+        <sz val="8"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="10"/>
+        <sz val="8"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="10"/>
+        <sz val="8"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="10"/>
+        <sz val="8"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
+        <sz val="8"/>
       </font>
     </dxf>
     <dxf>
@@ -6875,7 +5159,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10258,7 +8542,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1416559679"/>
@@ -10320,7 +8604,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1416575071"/>
@@ -10364,7 +8648,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10448,7 +8732,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10565,7 +8849,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="es-CL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10614,7 +8898,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="es-CL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10783,7 +9067,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1416565919"/>
@@ -10846,7 +9130,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1416568831"/>
@@ -10897,7 +9181,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11391,7 +9675,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-CL"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -11734,7 +10018,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-CL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -12100,7 +10384,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -12154,7 +10437,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="804671311"/>
@@ -12213,7 +10496,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="804670479"/>
@@ -12256,7 +10539,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12286,7 +10569,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12347,47 +10630,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -12447,7 +10689,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-CL"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -12766,7 +11008,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-CL"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -13149,7 +11391,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="106666416"/>
@@ -13208,7 +11450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="106681808"/>
@@ -13251,7 +11493,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13281,7 +11523,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -26451,459 +24693,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="D51:I62" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="42" showAll="0"/>
-    <pivotField dataField="1" numFmtId="42" showAll="0"/>
-    <pivotField dataField="1" numFmtId="42" showAll="0"/>
-    <pivotField dataField="1" numFmtId="42" showAll="0"/>
-    <pivotField dataField="1" numFmtId="42" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Suma de BANDA 80%" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Suma de BANDA 90%" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Suma de BANDA 100%" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Suma de BANDA 110%" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Suma de BANDA 120%" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="49">
-    <format dxfId="294">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="295">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="296">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="297">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="298">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="299">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="300">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="301">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="302">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="303">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="304">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="305">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="306">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="307">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="308">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="309">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="310">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="311">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="312">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="313">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="314">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="315">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="316">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="317">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="318">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="319">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="320">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="321">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="322">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="323">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="324">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="325">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="326">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="327">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="328">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="329">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="330">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="219">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="218">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="217">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="216">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="215">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="214">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="207">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="206">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="205">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="204">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="203">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="202">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="25" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="27" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="28" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="29" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="30" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K49:P62" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -27001,29 +24791,29 @@
     <dataField name="Suma de BANDA 120%" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="49">
-    <format dxfId="445">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="444">
+    <format dxfId="47">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="443">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="442">
+    <format dxfId="45">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="441">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="440">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="439">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -27036,26 +24826,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="438">
+    <format dxfId="41">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="437">
+    <format dxfId="40">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="436">
+    <format dxfId="39">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="435">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="434">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="433">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -27068,26 +24858,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="354">
+    <format dxfId="35">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="353">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="352">
+    <format dxfId="33">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="351">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="350">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="349">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -27100,26 +24890,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="348">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="347">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="346">
+    <format dxfId="27">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="345">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="344">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="343">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -27132,26 +24922,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="342">
+    <format dxfId="23">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="341">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="340">
+    <format dxfId="21">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="339">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="338">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="337">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -27164,26 +24954,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="336">
+    <format dxfId="17">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="335">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="334">
+    <format dxfId="15">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="333">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="332">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="331">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -27196,26 +24986,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="213">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="212">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="211">
+    <format dxfId="9">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="210">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="209">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="208">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -27228,26 +25018,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="201">
+    <format dxfId="5">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="200">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="199">
+    <format dxfId="3">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="198">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="197">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="196">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -27299,6 +25089,458 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="D51:I62" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="42" showAll="0"/>
+    <pivotField dataField="1" numFmtId="42" showAll="0"/>
+    <pivotField dataField="1" numFmtId="42" showAll="0"/>
+    <pivotField dataField="1" numFmtId="42" showAll="0"/>
+    <pivotField dataField="1" numFmtId="42" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Suma de BANDA 80%" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Suma de BANDA 90%" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma de BANDA 100%" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Suma de BANDA 110%" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Suma de BANDA 120%" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="49">
+    <format dxfId="97">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="96">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="95">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="94">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="93">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="92">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="91">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="90">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="89">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="88">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="87">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="86">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="85">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="84">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="83">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="82">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="81">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="80">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="79">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="78">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="77">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="75">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="74">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="73">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="72">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="71">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="69">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="68">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="66">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="59">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -27582,36 +25824,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y535"/>
   <sheetViews>
-    <sheetView topLeftCell="Q484" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:V535"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="4" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.125" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="30.125" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="4" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="38.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.375" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="19.375" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="19.25" style="4" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.25" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="38.25" style="4" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="30.875" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="7.75" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.625" style="4" customWidth="1"/>
+    <col min="25" max="25" width="12.75" style="4" hidden="1" customWidth="1"/>
     <col min="26" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
@@ -68796,6 +67038,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:X1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
@@ -68817,8 +67060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q535"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -68897,30 +67140,30 @@
       <c r="B4" s="14">
         <v>1900000</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="25" t="s">
         <v>1455</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="K4" s="16" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="K4" s="15" t="s">
         <v>1335</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="15" t="s">
         <v>1361</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>1364</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="15" t="s">
         <v>1362</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="15" t="s">
         <v>1365</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="15" t="s">
         <v>1363</v>
       </c>
     </row>
@@ -68931,31 +67174,31 @@
       <c r="B5" s="14">
         <v>540000</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="K5" s="17">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="K5" s="16">
         <v>10</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <f>+N5*80%</f>
         <v>510658.82352941181</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="17">
         <f>+N5*90%</f>
         <v>574491.17647058819</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="17">
         <v>638323.5294117647</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="17">
         <f>+N5*110%</f>
         <v>702155.8823529412</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="17">
         <f>+N5*120%</f>
         <v>765988.23529411759</v>
       </c>
@@ -68967,47 +67210,47 @@
       <c r="B6" s="14">
         <v>3509000</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>1335</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>1361</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>1364</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>1362</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>1365</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>1363</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="16">
         <v>11</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="17">
         <f t="shared" ref="L6:L14" si="0">+N6*80%</f>
         <v>607113.87096774194</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <f t="shared" ref="M6:M16" si="1">+N6*90%</f>
         <v>683003.10483870958</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="17">
         <v>758892.33870967734</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="17">
         <f t="shared" ref="O6:O16" si="2">+N6*110%</f>
         <v>834781.57258064509</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="17">
         <f t="shared" ref="P6:P14" si="3">+N6*120%</f>
         <v>910670.80645161273</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="19">
         <f>+N6/N5-1</f>
         <v>0.18888354218905357</v>
       </c>
@@ -69019,52 +67262,52 @@
       <c r="B7" s="14">
         <v>3274000</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>10</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f>+G7*80%</f>
         <v>521257.14285714284</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <f>+G7*90%</f>
         <v>586414.28571428568</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <f>+AVERAGEIF($A$2:$A$520,D7,$B$2:$B$520)</f>
         <v>651571.42857142852</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <f>+G7*1.1</f>
         <v>716728.57142857148</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <f>+G7*1.2</f>
         <v>781885.7142857142</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>12</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <f t="shared" si="0"/>
         <v>758880</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="17">
         <f t="shared" si="1"/>
         <v>853739.99999999988</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="17">
         <v>948599.99999999988</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="17">
         <f t="shared" si="2"/>
         <v>1043460</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="17">
         <f t="shared" si="3"/>
         <v>1138319.9999999998</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="19">
         <f t="shared" ref="Q7:Q16" si="4">+N7/N6-1</f>
         <v>0.24997967644906915</v>
       </c>
@@ -69076,52 +67319,52 @@
       <c r="B8" s="14">
         <v>6738000</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>11</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <f>+G8*80%</f>
         <v>603349.06832298136</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <f t="shared" ref="F8:F16" si="5">+G8*90%</f>
         <v>678767.70186335407</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <f>+AVERAGEIF($A$2:$A$520,D8,$B$2:$B$520)</f>
         <v>754186.33540372667</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <f t="shared" ref="H8:H16" si="6">+G8*1.1</f>
         <v>829604.96894409938</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <f t="shared" ref="I8:I16" si="7">+G8*1.2</f>
         <v>905023.60248447198</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>13</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <f t="shared" si="0"/>
         <v>986543.99999999988</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="17">
         <f t="shared" si="1"/>
         <v>1109861.9999999998</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="17">
         <v>1233179.9999999998</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="17">
         <f t="shared" si="2"/>
         <v>1356497.9999999998</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="17">
         <f t="shared" si="3"/>
         <v>1479815.9999999998</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="19">
         <f t="shared" si="4"/>
         <v>0.29999999999999982</v>
       </c>
@@ -69133,52 +67376,52 @@
       <c r="B9" s="14">
         <v>2539000</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>12</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <f>+G9*80%</f>
         <v>694032.18390804599</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <f t="shared" si="5"/>
         <v>780786.20689655165</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <f>+AVERAGEIF($A$2:$A$520,D10,$B$2:$B$520)</f>
         <v>867540.22988505743</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <f t="shared" si="6"/>
         <v>954294.25287356321</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <f t="shared" si="7"/>
         <v>1041048.2758620689</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>14</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="17">
         <f t="shared" si="0"/>
         <v>1297813.9999999991</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <f t="shared" si="1"/>
         <v>1460040.7499999988</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="17">
         <v>1622267.4999999986</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="17">
         <f t="shared" si="2"/>
         <v>1784494.2499999986</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="17">
         <f t="shared" si="3"/>
         <v>1946720.9999999981</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="19">
         <f t="shared" si="4"/>
         <v>0.31551557761235083</v>
       </c>
@@ -69190,50 +67433,50 @@
       <c r="B10" s="14">
         <v>1244000</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>13</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>975800</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <f t="shared" si="5"/>
         <v>1097775</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>1219750</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <f t="shared" si="6"/>
         <v>1341725</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <f t="shared" si="7"/>
         <v>1463700</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>15</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="17">
         <f t="shared" si="0"/>
         <v>1790983.3199999989</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <f t="shared" si="1"/>
         <v>2014856.2349999987</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="17">
         <v>2238729.1499999985</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="17">
         <f t="shared" si="2"/>
         <v>2462602.0649999985</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="17">
         <f t="shared" si="3"/>
         <v>2686474.9799999981</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="19">
         <f t="shared" si="4"/>
         <v>0.38000000000000034</v>
       </c>
@@ -69245,52 +67488,52 @@
       <c r="B11" s="14">
         <v>1901000</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>14</v>
       </c>
-      <c r="E11" s="18">
-        <f>+G11*80%</f>
+      <c r="E11" s="17">
+        <f t="shared" ref="E11:E16" si="8">+G11*80%</f>
         <v>1139438.9041095891</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <f t="shared" si="5"/>
         <v>1281868.7671232878</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <f>+AVERAGEIF($A$2:$A$520,D11,$B$2:$B$520)</f>
         <v>1424298.6301369863</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <f t="shared" si="6"/>
         <v>1566728.493150685</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <f t="shared" si="7"/>
         <v>1709158.3561643835</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>16</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="17">
         <f t="shared" si="0"/>
         <v>2543196.3143999986</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="17">
         <f t="shared" si="1"/>
         <v>2861095.853699998</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="17">
         <v>3178995.3929999978</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="17">
         <f t="shared" si="2"/>
         <v>3496894.9322999981</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="17">
         <f t="shared" si="3"/>
         <v>3814794.471599997</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="19">
         <f t="shared" si="4"/>
         <v>0.41999999999999993</v>
       </c>
@@ -69302,52 +67545,52 @@
       <c r="B12" s="14">
         <v>2900000</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>15</v>
       </c>
-      <c r="E12" s="18">
-        <f>+G12*80%</f>
+      <c r="E12" s="17">
+        <f t="shared" si="8"/>
         <v>1669295.6521739131</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <f t="shared" si="5"/>
         <v>1877957.6086956523</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <f>+AVERAGEIF($A$2:$A$520,D12,$B$2:$B$520)</f>
         <v>2086619.5652173914</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <f t="shared" si="6"/>
         <v>2295281.5217391308</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <f t="shared" si="7"/>
         <v>2503943.4782608696</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>17</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
         <f t="shared" si="0"/>
         <v>3662202.6927359984</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <f t="shared" si="1"/>
         <v>4119978.0293279984</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="17">
         <v>4577753.3659199979</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="17">
         <f t="shared" si="2"/>
         <v>5035528.7025119979</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="17">
         <f t="shared" si="3"/>
         <v>5493304.0391039969</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="19">
         <f t="shared" si="4"/>
         <v>0.44000000000000039</v>
       </c>
@@ -69359,52 +67602,52 @@
       <c r="B13" s="14">
         <v>3715000</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>16</v>
       </c>
-      <c r="E13" s="18">
-        <f>+G13*80%</f>
+      <c r="E13" s="17">
+        <f t="shared" si="8"/>
         <v>2308272.5925925928</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <f t="shared" si="5"/>
         <v>2596806.6666666665</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <f>+AVERAGEIF($A$2:$A$520,D13,$B$2:$B$520)</f>
         <v>2885340.7407407407</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <f t="shared" si="6"/>
         <v>3173874.8148148148</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <f t="shared" si="7"/>
         <v>3462408.8888888885</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <v>18</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="17">
         <f t="shared" si="0"/>
         <v>5420059.9852492809</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="17">
         <f t="shared" si="1"/>
         <v>6097567.483405441</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="17">
         <v>6775074.9815616012</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="17">
         <f t="shared" si="2"/>
         <v>7452582.4797177622</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="17">
         <f t="shared" si="3"/>
         <v>8130089.9778739214</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="19">
         <f t="shared" si="4"/>
         <v>0.48000000000000087</v>
       </c>
@@ -69416,52 +67659,52 @@
       <c r="B14" s="14">
         <v>2600000</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>17</v>
       </c>
-      <c r="E14" s="18">
-        <f>+G14*80%</f>
+      <c r="E14" s="17">
+        <f t="shared" si="8"/>
         <v>3027161.9047619049</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <f t="shared" si="5"/>
         <v>3405557.1428571432</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="17">
         <f>+AVERAGEIF($A$2:$A$520,D14,$B$2:$B$520)</f>
         <v>3783952.3809523811</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <f t="shared" si="6"/>
         <v>4162347.6190476194</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="17">
         <f t="shared" si="7"/>
         <v>4540742.8571428573</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="16">
         <v>19</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="17">
         <f t="shared" si="0"/>
         <v>7046077.9808240654</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="17">
         <f t="shared" si="1"/>
         <v>7926837.7284270739</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="17">
         <v>8807597.4760300815</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="17">
         <f t="shared" si="2"/>
         <v>9688357.22363309</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="17">
         <f t="shared" si="3"/>
         <v>10569116.971236097</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="19">
         <f>+N14/N13-1</f>
         <v>0.30000000000000004</v>
       </c>
@@ -69473,52 +67716,52 @@
       <c r="B15" s="14">
         <v>2400000</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>18</v>
       </c>
-      <c r="E15" s="18">
-        <f>+G15*80%</f>
+      <c r="E15" s="17">
+        <f t="shared" si="8"/>
         <v>5213672.7272727275</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <f t="shared" si="5"/>
         <v>5865381.8181818184</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <f>+AVERAGEIF($A$2:$A$520,D15,$B$2:$B$520)</f>
         <v>6517090.9090909092</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <f t="shared" si="6"/>
         <v>7168800.0000000009</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <f t="shared" si="7"/>
         <v>7820509.0909090908</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="16">
         <v>20</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="17">
         <f>+N15*80%</f>
         <v>9300822.9346877672</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="17">
         <f t="shared" si="1"/>
         <v>10463425.801523738</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="17">
         <v>11626028.668359708</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="17">
         <f t="shared" si="2"/>
         <v>12788631.53519568</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="17">
         <f>+N15*120%</f>
         <v>13951234.402031649</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="19">
         <f t="shared" si="4"/>
         <v>0.32000000000000006</v>
       </c>
@@ -69530,51 +67773,51 @@
       <c r="B16" s="14">
         <v>3150000</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>19</v>
       </c>
-      <c r="E16" s="18">
-        <f>+G16*80%</f>
+      <c r="E16" s="17">
+        <f t="shared" si="8"/>
         <v>6240000</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <f t="shared" si="5"/>
         <v>7020000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>7800000</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <f t="shared" si="6"/>
         <v>8580000</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <f t="shared" si="7"/>
         <v>9360000</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="16">
         <v>21</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="17">
         <f>+N16*80%</f>
         <v>12823861.925099783</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="17">
         <f t="shared" si="1"/>
         <v>14426844.665737256</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="17">
         <v>16029827.406374728</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="17">
         <f t="shared" si="2"/>
         <v>17632810.147012204</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="17">
         <f>+N16*120%</f>
         <v>19235792.887649674</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="19">
         <f t="shared" si="4"/>
         <v>0.37878787878787712</v>
       </c>
@@ -69610,7 +67853,7 @@
       <c r="B20" s="14">
         <v>610000</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -69619,7 +67862,7 @@
       <c r="B21" s="14">
         <v>570000</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -69628,7 +67871,7 @@
       <c r="B22" s="14">
         <v>600000</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -69637,7 +67880,7 @@
       <c r="B23" s="14">
         <v>570000</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -69646,7 +67889,7 @@
       <c r="B24" s="14">
         <v>570000</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -69655,7 +67898,7 @@
       <c r="B25" s="14">
         <v>1260000</v>
       </c>
-      <c r="J25" s="21"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -69664,9 +67907,9 @@
       <c r="B26" s="14">
         <v>1680000</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="P26" s="21"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="P26" s="20"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -69675,7 +67918,7 @@
       <c r="B27" s="14">
         <v>1500000</v>
       </c>
-      <c r="J27" s="21"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -69684,7 +67927,7 @@
       <c r="B28" s="14">
         <v>1150000</v>
       </c>
-      <c r="J28" s="21"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
@@ -69879,22 +68122,22 @@
       <c r="B50" s="14">
         <v>4300000</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="21">
         <v>10</v>
       </c>
-      <c r="L50" s="23">
+      <c r="L50" s="22">
         <v>510658.82352941181</v>
       </c>
-      <c r="M50" s="23">
+      <c r="M50" s="22">
         <v>574491.17647058819</v>
       </c>
-      <c r="N50" s="23">
+      <c r="N50" s="22">
         <v>638323.5294117647</v>
       </c>
-      <c r="O50" s="23">
+      <c r="O50" s="22">
         <v>702155.8823529412</v>
       </c>
-      <c r="P50" s="23">
+      <c r="P50" s="22">
         <v>765988.23529411759</v>
       </c>
     </row>
@@ -69923,22 +68166,22 @@
       <c r="I51" s="3" t="s">
         <v>1371</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="21">
         <v>11</v>
       </c>
-      <c r="L51" s="23">
+      <c r="L51" s="22">
         <v>612000</v>
       </c>
-      <c r="M51" s="23">
+      <c r="M51" s="22">
         <v>688500</v>
       </c>
-      <c r="N51" s="23">
+      <c r="N51" s="22">
         <v>765000</v>
       </c>
-      <c r="O51" s="23">
+      <c r="O51" s="22">
         <v>841500.00000000012</v>
       </c>
-      <c r="P51" s="23">
+      <c r="P51" s="22">
         <v>918000</v>
       </c>
     </row>
@@ -69949,40 +68192,40 @@
       <c r="B52" s="14">
         <v>630000</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="21">
         <v>10</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="22">
         <v>521257.14285714284</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="22">
         <v>586414.28571428568</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="22">
         <v>651571.42857142852</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="22">
         <v>716728.57142857148</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="22">
         <v>781885.7142857142</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="21">
         <v>12</v>
       </c>
-      <c r="L52" s="23">
+      <c r="L52" s="22">
         <v>758880</v>
       </c>
-      <c r="M52" s="23">
+      <c r="M52" s="22">
         <v>853739.99999999988</v>
       </c>
-      <c r="N52" s="23">
+      <c r="N52" s="22">
         <v>948599.99999999988</v>
       </c>
-      <c r="O52" s="23">
+      <c r="O52" s="22">
         <v>1043460</v>
       </c>
-      <c r="P52" s="23">
+      <c r="P52" s="22">
         <v>1138319.9999999998</v>
       </c>
     </row>
@@ -69993,40 +68236,40 @@
       <c r="B53" s="14">
         <v>770000</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="21">
         <v>11</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="22">
         <v>603349.06832298136</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="22">
         <v>678767.70186335407</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="22">
         <v>754186.33540372667</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="22">
         <v>829604.96894409938</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="22">
         <v>905023.60248447198</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K53" s="21">
         <v>13</v>
       </c>
-      <c r="L53" s="23">
+      <c r="L53" s="22">
         <v>975800</v>
       </c>
-      <c r="M53" s="23">
+      <c r="M53" s="22">
         <v>1097775</v>
       </c>
-      <c r="N53" s="23">
+      <c r="N53" s="22">
         <v>1219750</v>
       </c>
-      <c r="O53" s="23">
+      <c r="O53" s="22">
         <v>1341725</v>
       </c>
-      <c r="P53" s="23">
+      <c r="P53" s="22">
         <v>1463700</v>
       </c>
     </row>
@@ -70037,40 +68280,40 @@
       <c r="B54" s="14">
         <v>2500000</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="21">
         <v>12</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="22">
         <v>694032.18390804599</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="22">
         <v>780786.20689655165</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="22">
         <v>867540.22988505743</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="22">
         <v>954294.25287356321</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="22">
         <v>1041048.2758620689</v>
       </c>
-      <c r="K54" s="22">
+      <c r="K54" s="21">
         <v>14</v>
       </c>
-      <c r="L54" s="23">
+      <c r="L54" s="22">
         <v>1297813.9999999991</v>
       </c>
-      <c r="M54" s="23">
+      <c r="M54" s="22">
         <v>1460040.7499999988</v>
       </c>
-      <c r="N54" s="23">
+      <c r="N54" s="22">
         <v>1622267.4999999986</v>
       </c>
-      <c r="O54" s="23">
+      <c r="O54" s="22">
         <v>1784494.2499999986</v>
       </c>
-      <c r="P54" s="23">
+      <c r="P54" s="22">
         <v>1946720.9999999981</v>
       </c>
     </row>
@@ -70081,40 +68324,40 @@
       <c r="B55" s="14">
         <v>550000</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="21">
         <v>13</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="22">
         <v>975800</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="22">
         <v>1097775</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="22">
         <v>1219750</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="22">
         <v>1341725</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="22">
         <v>1463700</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K55" s="21">
         <v>15</v>
       </c>
-      <c r="L55" s="23">
+      <c r="L55" s="22">
         <v>1790983.3199999989</v>
       </c>
-      <c r="M55" s="23">
+      <c r="M55" s="22">
         <v>2014856.2349999987</v>
       </c>
-      <c r="N55" s="23">
+      <c r="N55" s="22">
         <v>2238729.1499999985</v>
       </c>
-      <c r="O55" s="23">
+      <c r="O55" s="22">
         <v>2462602.0649999985</v>
       </c>
-      <c r="P55" s="23">
+      <c r="P55" s="22">
         <v>2686474.9799999981</v>
       </c>
     </row>
@@ -70125,40 +68368,40 @@
       <c r="B56" s="14">
         <v>640000</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="21">
         <v>14</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="22">
         <v>1139438.9041095891</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="22">
         <v>1281868.7671232878</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="22">
         <v>1424298.6301369863</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="22">
         <v>1566728.493150685</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="22">
         <v>1709158.3561643835</v>
       </c>
-      <c r="K56" s="22">
+      <c r="K56" s="21">
         <v>16</v>
       </c>
-      <c r="L56" s="23">
+      <c r="L56" s="22">
         <v>2543196.3143999986</v>
       </c>
-      <c r="M56" s="23">
+      <c r="M56" s="22">
         <v>2861095.853699998</v>
       </c>
-      <c r="N56" s="23">
+      <c r="N56" s="22">
         <v>3178995.3929999978</v>
       </c>
-      <c r="O56" s="23">
+      <c r="O56" s="22">
         <v>3496894.9322999981</v>
       </c>
-      <c r="P56" s="23">
+      <c r="P56" s="22">
         <v>3814794.471599997</v>
       </c>
     </row>
@@ -70169,40 +68412,40 @@
       <c r="B57" s="14">
         <v>600000</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="21">
         <v>15</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="22">
         <v>1669295.6521739131</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="22">
         <v>1877957.6086956523</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="22">
         <v>2086619.5652173914</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="22">
         <v>2295281.5217391308</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="22">
         <v>2503943.4782608696</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K57" s="21">
         <v>17</v>
       </c>
-      <c r="L57" s="23">
+      <c r="L57" s="22">
         <v>3662202.6927359984</v>
       </c>
-      <c r="M57" s="23">
+      <c r="M57" s="22">
         <v>4119978.0293279984</v>
       </c>
-      <c r="N57" s="23">
+      <c r="N57" s="22">
         <v>4577753.3659199979</v>
       </c>
-      <c r="O57" s="23">
+      <c r="O57" s="22">
         <v>5035528.7025119979</v>
       </c>
-      <c r="P57" s="23">
+      <c r="P57" s="22">
         <v>5493304.0391039969</v>
       </c>
     </row>
@@ -70213,40 +68456,40 @@
       <c r="B58" s="14">
         <v>682000</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="21">
         <v>16</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="22">
         <v>2308272.5925925928</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="22">
         <v>2596806.6666666665</v>
       </c>
-      <c r="G58" s="23">
+      <c r="G58" s="22">
         <v>2885340.7407407407</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="22">
         <v>3173874.8148148148</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="22">
         <v>3462408.8888888885</v>
       </c>
-      <c r="K58" s="22">
+      <c r="K58" s="21">
         <v>18</v>
       </c>
-      <c r="L58" s="23">
+      <c r="L58" s="22">
         <v>5420059.9852492809</v>
       </c>
-      <c r="M58" s="23">
+      <c r="M58" s="22">
         <v>6097567.483405441</v>
       </c>
-      <c r="N58" s="23">
+      <c r="N58" s="22">
         <v>6775074.9815616012</v>
       </c>
-      <c r="O58" s="23">
+      <c r="O58" s="22">
         <v>7452582.4797177622</v>
       </c>
-      <c r="P58" s="23">
+      <c r="P58" s="22">
         <v>8130089.9778739214</v>
       </c>
     </row>
@@ -70257,40 +68500,40 @@
       <c r="B59" s="14">
         <v>3125000</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="21">
         <v>17</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="22">
         <v>3027161.9047619049</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="22">
         <v>3405557.1428571432</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="22">
         <v>3783952.3809523811</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="22">
         <v>4162347.6190476194</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="22">
         <v>4540742.8571428573</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K59" s="21">
         <v>19</v>
       </c>
-      <c r="L59" s="23">
+      <c r="L59" s="22">
         <v>7046077.9808240654</v>
       </c>
-      <c r="M59" s="23">
+      <c r="M59" s="22">
         <v>7926837.7284270739</v>
       </c>
-      <c r="N59" s="23">
+      <c r="N59" s="22">
         <v>8807597.4760300815</v>
       </c>
-      <c r="O59" s="23">
+      <c r="O59" s="22">
         <v>9688357.22363309</v>
       </c>
-      <c r="P59" s="23">
+      <c r="P59" s="22">
         <v>10569116.971236097</v>
       </c>
     </row>
@@ -70301,40 +68544,40 @@
       <c r="B60" s="14">
         <v>783000</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="21">
         <v>18</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="22">
         <v>5213672.7272727275</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="22">
         <v>5865381.8181818184</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="22">
         <v>6517090.9090909092</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="22">
         <v>7168800.0000000009</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="22">
         <v>7820509.0909090908</v>
       </c>
-      <c r="K60" s="22">
+      <c r="K60" s="21">
         <v>20</v>
       </c>
-      <c r="L60" s="23">
+      <c r="L60" s="22">
         <v>9159901.3750712741</v>
       </c>
-      <c r="M60" s="23">
+      <c r="M60" s="22">
         <v>10304889.046955183</v>
       </c>
-      <c r="N60" s="23">
+      <c r="N60" s="22">
         <v>11449876.718839092</v>
       </c>
-      <c r="O60" s="23">
+      <c r="O60" s="22">
         <v>12594864.390723003</v>
       </c>
-      <c r="P60" s="23">
+      <c r="P60" s="22">
         <v>13739852.06260691</v>
       </c>
     </row>
@@ -70345,40 +68588,40 @@
       <c r="B61" s="14">
         <v>655000</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="21">
         <v>19</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="22">
         <v>6240000</v>
       </c>
-      <c r="F61" s="23">
+      <c r="F61" s="22">
         <v>7020000</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="22">
         <v>7800000</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="22">
         <v>8580000</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="22">
         <v>9360000</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K61" s="21">
         <v>21</v>
       </c>
-      <c r="L61" s="23">
+      <c r="L61" s="22">
         <v>12365866.85634622</v>
       </c>
-      <c r="M61" s="23">
+      <c r="M61" s="22">
         <v>13911600.213389497</v>
       </c>
-      <c r="N61" s="23">
+      <c r="N61" s="22">
         <v>15457333.570432775</v>
       </c>
-      <c r="O61" s="23">
+      <c r="O61" s="22">
         <v>17003066.927476052</v>
       </c>
-      <c r="P61" s="23">
+      <c r="P61" s="22">
         <v>18548800.28451933</v>
       </c>
     </row>
@@ -70389,40 +68632,40 @@
       <c r="B62" s="14">
         <v>580000</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="21" t="s">
         <v>1289</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="22">
         <v>22392280.175998896</v>
       </c>
-      <c r="F62" s="23">
+      <c r="F62" s="22">
         <v>25191315.197998762</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="22">
         <v>27990350.21999862</v>
       </c>
-      <c r="H62" s="23">
+      <c r="H62" s="22">
         <v>30789385.241998486</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="22">
         <v>33588420.263998345</v>
       </c>
-      <c r="K62" s="22" t="s">
+      <c r="K62" s="21" t="s">
         <v>1289</v>
       </c>
-      <c r="L62" s="23">
+      <c r="L62" s="22">
         <v>46143441.348156244</v>
       </c>
-      <c r="M62" s="23">
+      <c r="M62" s="22">
         <v>51911371.516675785</v>
       </c>
-      <c r="N62" s="23">
+      <c r="N62" s="22">
         <v>57679301.685195304</v>
       </c>
-      <c r="O62" s="23">
+      <c r="O62" s="22">
         <v>63447231.853714839</v>
       </c>
-      <c r="P62" s="23">
+      <c r="P62" s="22">
         <v>69215162.022234365</v>
       </c>
     </row>
@@ -70557,7 +68800,7 @@
       <c r="G77" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="J77" s="24" t="s">
+      <c r="J77" s="23" t="s">
         <v>1357</v>
       </c>
     </row>
@@ -70580,7 +68823,7 @@
       <c r="G78" s="3">
         <v>1300000</v>
       </c>
-      <c r="J78" s="25">
+      <c r="J78" s="24">
         <v>1400000</v>
       </c>
     </row>
@@ -70603,7 +68846,7 @@
       <c r="G79" s="3">
         <v>1000000</v>
       </c>
-      <c r="J79" s="25">
+      <c r="J79" s="24">
         <v>1100000</v>
       </c>
     </row>
@@ -70626,7 +68869,7 @@
       <c r="G80" s="3">
         <v>750000</v>
       </c>
-      <c r="J80" s="25">
+      <c r="J80" s="24">
         <v>850000</v>
       </c>
     </row>
@@ -70649,7 +68892,7 @@
       <c r="G81" s="3">
         <v>950000</v>
       </c>
-      <c r="J81" s="25">
+      <c r="J81" s="24">
         <v>1000000</v>
       </c>
     </row>
@@ -70672,7 +68915,7 @@
       <c r="G82" s="3">
         <v>800000</v>
       </c>
-      <c r="J82" s="25">
+      <c r="J82" s="24">
         <v>850000</v>
       </c>
     </row>
@@ -70695,7 +68938,7 @@
       <c r="G83" s="3">
         <v>650000</v>
       </c>
-      <c r="J83" s="25">
+      <c r="J83" s="24">
         <v>700000</v>
       </c>
     </row>
@@ -70718,7 +68961,7 @@
       <c r="G84" s="3">
         <v>850000</v>
       </c>
-      <c r="J84" s="25">
+      <c r="J84" s="24">
         <v>950000</v>
       </c>
     </row>
@@ -70741,7 +68984,7 @@
       <c r="G85" s="3">
         <v>650000</v>
       </c>
-      <c r="J85" s="25">
+      <c r="J85" s="24">
         <v>700000</v>
       </c>
     </row>
@@ -75109,6 +73352,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b5279c15-aca5-428f-a3d4-80663320567d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010096915D4B4AF20E4190B9F0A71118DA2F" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ddd4ed0391da20613cdd8ccbe9f68e22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b5279c15-aca5-428f-a3d4-80663320567d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aa51129c9b7ed642e26554bf14eb456c" ns3:_="">
     <xsd:import namespace="b5279c15-aca5-428f-a3d4-80663320567d"/>
@@ -75290,37 +73550,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b5279c15-aca5-428f-a3d4-80663320567d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE22AC59-4523-493D-B5D3-CFB8704E6DF6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52B5AC73-E83B-4B67-94BA-F2AEB1B4276A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b5279c15-aca5-428f-a3d4-80663320567d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -75342,9 +73575,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52B5AC73-E83B-4B67-94BA-F2AEB1B4276A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE22AC59-4523-493D-B5D3-CFB8704E6DF6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b5279c15-aca5-428f-a3d4-80663320567d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>